--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>priceList</t>
   </si>
@@ -22,49 +22,100 @@
     <t>UIDetails</t>
   </si>
   <si>
+    <t>Dis_BackendDetails</t>
+  </si>
+  <si>
+    <t>Dis_UIDetails</t>
+  </si>
+  <si>
     <t>Monthly Rental</t>
   </si>
   <si>
     <t xml:space="preserve"> ₹11,534 </t>
   </si>
   <si>
+    <t>10447.308846367843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹10,447 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Amount        </t>
   </si>
   <si>
     <t xml:space="preserve"> ₹8,941 </t>
   </si>
   <si>
+    <t>8098.690423540964</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹8,098 </t>
+  </si>
+  <si>
     <t xml:space="preserve">GST          </t>
   </si>
   <si>
     <t xml:space="preserve"> ₹2,593 </t>
   </si>
   <si>
+    <t>2348.61842282688</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹2,349 </t>
+  </si>
+  <si>
     <t xml:space="preserve">FMS Charges  </t>
   </si>
   <si>
     <t xml:space="preserve"> ₹1,851 </t>
   </si>
   <si>
+    <t>1784.0029704602657</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1,784 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Amount       </t>
   </si>
   <si>
     <t xml:space="preserve"> ₹1,568 </t>
   </si>
   <si>
+    <t>1511.8669241188693</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹1,511 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ₹282 </t>
   </si>
   <si>
+    <t>272.1360463413965</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹272 </t>
+  </si>
+  <si>
     <t>Reimbursement</t>
   </si>
   <si>
     <t xml:space="preserve"> ₹2,083 </t>
   </si>
   <si>
+    <t>2083.11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total         </t>
   </si>
   <si>
     <t xml:space="preserve"> ₹15,469 </t>
+  </si>
+  <si>
+    <t>14314.42181682811</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ₹14,315 </t>
   </si>
 </sst>
 </file>
@@ -441,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,97 +505,151 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>11534</v>
+        <v>11534.43</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>8941</v>
+        <v>8941.42</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>2593</v>
+        <v>2593.01</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>1851</v>
+        <v>1851.3200000000002</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>1569</v>
+        <v>1568.92</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>282</v>
+        <v>282.4056</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>2083</v>
+        <v>2083.11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>15469</v>
+        <v>15468.86</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>